--- a/AutoCorrectAPI/Data_Topic_Company.xlsx
+++ b/AutoCorrectAPI/Data_Topic_Company.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1fastaccess\RPA\RPA_source\Information Retrieval\iEditDistance\AutoCorrectAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA880F5-FF0D-4224-81E0-ED5A1BCEF828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3B4EF-0880-4CFD-B54B-CD9AB477E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AD17F5-1DCF-48CF-8E38-550215D1E0A5}"/>
+    <workbookView xWindow="3810" yWindow="255" windowWidth="16920" windowHeight="10080" xr2:uid="{33AD17F5-1DCF-48CF-8E38-550215D1E0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kitten</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>TOSHIBA</t>
+  </si>
+  <si>
+    <t>HONDO</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F527A7F6-2A2E-4FAE-80B1-D0DBE7FDA597}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +441,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
